--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtegu\Downloads\apache-jmeter-5.4.3\apache-jmeter-5.4.3\bin\habits\TestHabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A84B1FA-EF59-4E7A-826B-C4EFAEA5C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644C365-1CD1-431C-B96E-F2A6FC166C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F842C4F-786F-4873-A889-A037B77806A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,18 +32,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>resultado obtenido</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>resultado esperado</t>
   </si>
   <si>
-    <t>Paso a paso</t>
-  </si>
-  <si>
     <t>Precondicion</t>
+  </si>
+  <si>
+    <t>Ingresar a https://userinyerface.com/</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Se valida el formato que tiene el enlace "HERE"</t>
+  </si>
+  <si>
+    <t>Se espera en la pabra here se habilite un hover</t>
+  </si>
+  <si>
+    <t>Ingresar a https://userinyerface.com/game.html</t>
+  </si>
+  <si>
+    <t>De desea validar la paginacion del formulario</t>
+  </si>
+  <si>
+    <t>Se espera que la paginacion numerica avance conforme al boton next luego de completar formulario</t>
+  </si>
+  <si>
+    <t>Localizar ventana de soport</t>
+  </si>
+  <si>
+    <t>Chvevron de casilla "howcan we help?" debe plegar/desplegar</t>
+  </si>
+  <si>
+    <t>Se espera que al presionar el chevron la casilla se oculte y/o aparezca</t>
   </si>
 </sst>
 </file>
@@ -59,12 +83,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,31 +426,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF6B24-228A-4A8E-973C-12A2E61E084E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
